--- a/metadata/TB/TB_DASHBOARD_V1_DHIS2.33/reference.xlsx
+++ b/metadata/TB/TB_DASHBOARD_V1_DHIS2.33/reference.xlsx
@@ -482,7 +482,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-02-08T15:03</v>
+        <v>2021-02-08T17:28</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>TB_DASHBOARD_V1.1.1_DHIS2.33_2021-02-08T15:03</v>
+        <v>TB_DASHBOARD_V1.1.1_DHIS2.33_2021-02-08T17:28</v>
       </c>
     </row>
   </sheetData>
@@ -1822,7 +1822,7 @@
         <v>Compare subunits using the same graph/Comparez les sous-unités utilisant le même graphique</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2019-08-27</v>
+        <v>2021-02-08</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>BuTAAbV4zMg</v>
@@ -4801,7 +4801,7 @@
         <v>j6wYomVhfNs</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v xml:space="preserve">[CONFIG] TB - Laboratory-confirmed MDR-TB cases </v>
+        <v>[CONFIG] TB - Laboratory-confirmed MDR-TB cases</v>
       </c>
       <c r="C25" s="5" t="str">
         <v>Lab-confirmed MDR-TB</v>
@@ -4833,10 +4833,10 @@
         <v>J7ChdEuwMPW</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v xml:space="preserve">[CONFIG] TB - TB cases tested for HIV or with known HIV status </v>
+        <v>[CONFIG] TB - TB cases tested for HIV or with known HIV status</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v xml:space="preserve">TB/HIV tested </v>
+        <v>TB/HIV tested</v>
       </c>
       <c r="D26" s="4" t="str">
         <v>TB_C_HIV_TEST</v>
@@ -4993,10 +4993,10 @@
         <v>lRAKLRVIMgp</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v xml:space="preserve">[CONFIG] TB - Notified TB cases (all cases, all forms) </v>
+        <v>[CONFIG] TB - Notified TB cases (all cases, all forms)</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v xml:space="preserve">All cases (all forms TB) </v>
+        <v>All cases (all forms TB)</v>
       </c>
       <c r="D31" s="5" t="str">
         <v>TB_C_NOTIFIED</v>
@@ -5089,10 +5089,10 @@
         <v>mPz2CV8PamC</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v xml:space="preserve">[CONFIG] TB - TB cases tested for susceptibility to rifampicin </v>
+        <v>[CONFIG] TB - TB cases tested for susceptibility to rifampicin</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v xml:space="preserve">Tested for RR-TB </v>
+        <v>Tested for RR-TB</v>
       </c>
       <c r="D34" s="4" t="str">
         <v>TB_C_DST</v>
